--- a/Data/Thesis Final DATA.xlsx
+++ b/Data/Thesis Final DATA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIDEMI\Desktop\PROJECT DATA AND PICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R Projects Files\Office Hour\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E1FCA4-0E8E-4D3F-855D-2E831EA86D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,16 +46,10 @@
     <t>Fresh Weight Of Shoot</t>
   </si>
   <si>
-    <t>TFWP</t>
-  </si>
-  <si>
     <t>Fresh Weight Of Root</t>
   </si>
   <si>
     <t>Fresh Weight Of Tuber</t>
-  </si>
-  <si>
-    <t>FWT</t>
   </si>
   <si>
     <t>DRS 027</t>
@@ -97,11 +90,17 @@
   <si>
     <t>SPAD</t>
   </si>
+  <si>
+    <t>Fresh Weight of Tuber at Harvest/Senescence</t>
+  </si>
+  <si>
+    <t>Total Biomass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,30 +472,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -522,10 +521,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -551,10 +550,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -580,10 +579,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -609,10 +608,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -638,10 +637,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -667,10 +666,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -696,10 +695,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -725,10 +724,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -754,10 +753,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -783,10 +782,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -812,10 +811,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -841,10 +840,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -870,10 +869,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -899,10 +898,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -928,10 +927,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -957,10 +956,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -986,10 +985,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1015,10 +1014,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1044,10 +1043,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1073,10 +1072,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1102,10 +1101,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1131,10 +1130,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1160,10 +1159,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1189,10 +1188,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1218,10 +1217,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1247,10 +1246,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1276,10 +1275,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1305,10 +1304,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1334,10 +1333,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1363,10 +1362,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1392,10 +1391,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1421,10 +1420,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1450,10 +1449,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1479,10 +1478,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
         <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1508,10 +1507,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1537,10 +1536,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1566,10 +1565,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1595,10 +1594,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1624,10 +1623,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1653,10 +1652,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1682,10 +1681,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1711,10 +1710,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1740,10 +1739,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
         <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1769,10 +1768,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1798,10 +1797,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1827,10 +1826,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1856,10 +1855,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1885,10 +1884,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1914,10 +1913,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1943,10 +1942,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1972,10 +1971,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -2001,10 +2000,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
         <v>16</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2030,10 +2029,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -2059,10 +2058,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2088,10 +2087,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2117,10 +2116,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2146,10 +2145,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2175,10 +2174,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2204,10 +2203,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2233,10 +2232,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2262,10 +2261,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2291,10 +2290,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
         <v>17</v>
-      </c>
-      <c r="B64" t="s">
-        <v>19</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2320,10 +2319,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -2349,10 +2348,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2378,10 +2377,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -2407,10 +2406,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -2436,10 +2435,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -2465,10 +2464,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2494,10 +2493,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -2523,10 +2522,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -2552,10 +2551,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
         <v>17</v>
-      </c>
-      <c r="B73" t="s">
-        <v>19</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -2581,10 +2580,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -2610,10 +2609,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -2639,10 +2638,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2668,10 +2667,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -2697,10 +2696,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -2726,10 +2725,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -2755,10 +2754,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -2784,10 +2783,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -2813,10 +2812,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
         <v>17</v>
-      </c>
-      <c r="B82" t="s">
-        <v>19</v>
       </c>
       <c r="C82">
         <v>3</v>
